--- a/Document/50kg小飞机后续.xlsx
+++ b/Document/50kg小飞机后续.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>智能无人机任务规划这个方面去做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,330 @@
   </si>
   <si>
     <t>2023年6月4日20:54:10这个方案前后就用了半小时吧就写出来了。但是目前好像也不太稳定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月10日13:39:59那些都算是解决完了，赶紧想辙整整数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转弯速率：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师兄也不知道，说是看参考文献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgrs.com/show_p.aspx?id=20这个貌似有点靠谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里面倒是有一系列相机的信息，但是并不足以推出“感知距离是多大”这样的东西来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.allview-t.com/product/7/这个看着倒是比较靠谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.allview-t.com/product/27.html</t>
+  </si>
+  <si>
+    <t>这个，5kg的头，激光测距5km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦距越大，可视距离越远，没毛病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位都是米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1除以物距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1除以像距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1除以焦距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像也无法直接推出来，这东西像距毕竟不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sz-nien.com/product/showproduct.php?id=258</t>
+  </si>
+  <si>
+    <t>这个貌似大很多，变焦范围也大很多。没什么参考价值了，直径都快有四分之一个巡飞弹了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过这家做了很多3-5公里的云台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如这个：http://www.sz-nien.com/product/showproduct.php?id=262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概157的直径，已经算是靠点谱了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那综上，劳资们取个垃圾点的3公里感知范围，可也。这个问题就算是解决了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能飞3.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时速是之前的160km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的续航里程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察一下战术展开的尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营级120毫米迫榴炮射程是10km量级https://zhuanlan.zhihu.com/p/399693085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美制毒刺导弹射程也是最大五公里，复仇者防空车上也是这种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴赫穆特面积只有41平方公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km/min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1944年三月，苏军乌克兰第一方面军总兵力86万人，战线宽度400kmhttps://www.zhihu.com/question/458272979/answer/3051708345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据这个，https://kns.cnki.net/kcms2/article/abstract?v=3uoqIhG8C44YLTlOAiTRKgchrJ08w1e7tvjWANqNvp_XFHSH-j7l4CjRaOPuDelAhNqplWGaih9vGnsnSPUHU1NbesznIAyC&amp;uniplatform=NZKPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个排防御正面宽度900m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/KXReader/Detail?invoice=chuYg3FEOTT8hXP6oFQs3tzfuBhYkpzr1eFto77T8S77Rq3pmx9mRf1jv4pPRiRPtSCob9591Q%2F6MYNkZYGgxcaJijnROxbNQbaaaW4VdC%2F%2BPOrzWsEXUyrK%2FOFjrhlGD38Ort%2FMzH2A%2BfyihHhhjkm03WXQEKq%2FjZBL%2BYWFVOE%3D&amp;DBCODE=CJFD&amp;FileName=FHDD201712009&amp;TABLEName=cjfdlast2018&amp;nonce=92C7B4D1E5E6427984DEC455F3D0C4D7&amp;TIMESTAMP=1686384877413&amp;uid=</t>
+  </si>
+  <si>
+    <t>合成旅防御正面10-15km，纵深12-25km。这个是合成旅山地战的情形貌似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/KXReader/Detail?invoice=CbLfgE3u%2FyWnkfx1r3HdcRObgWeRIrcOfbKQRdGNKRJ0WoHgN9mgjugJbIMIFf%2FtCpEUQKQuhEGwA48HliA3%2FNKWn0yQSUd%2BkmyUGEaCIl%2B9TYAgkayfe0HTmedt7jFZmZSoZPZw%2BU4pWW8X8HV7H0o5gVuQamlblp%2BK30vOgCA%3D&amp;DBCODE=CJFD&amp;FileName=DJZD202204021&amp;TABLEName=cjfdlast2022&amp;nonce=9DBCCE6929E6457882B6E5CFF56E2064&amp;TIMESTAMP=1686386097867&amp;uid=</t>
+  </si>
+  <si>
+    <t>这个不知道依据，但是做的也是20*20km左右的区域，那和上一个交叉验证了，可以说就算是完事了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【引入一个新问题：随机区域真的实用吗？硬说的话就是随机区域是敌方阵地？】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算是有结论了，就差不多20*20km这么大的范围就还好呗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里面还有一个图森破的算法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度：不加速度了，就只保持那一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向的那个角速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧刀的可见光也是3km这一档https://kns.cnki.net/KXReader/Detail?invoice=d3yGUis7D73FnoiyMlygyV83vPqPq0mhTneSLmnXAUB7jg3AUl0v4HJlD%2BTSvPZ8I9vYgfnG%2B8%2FlzqEa9JobLKhJfnibrzGl67wpZ2F7rZAr4fYGpb%2BKNske4ewPRM3rCpBvomDcM2NvPw09oudlzYF%2BjN2GwkvflEtdrPQyGFU%3D&amp;DBCODE=CJFD&amp;FileName=JGHW202302001&amp;TABLEName=cjfdlast2023&amp;nonce=82C21F8EFF074542ACE0D42C84C8D164&amp;TIMESTAMP=1686387716731&amp;uid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后红外是10km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说了可用过载小。那先预定一个可用过载然后来算？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载m/ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【那说明我直接上来就Omega给1实在是给的有点多了，甚至是过于多了，远远飞不到三个g的过载。】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转弯的时候直接照着一个g算就完事了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么至此，无人机飞这块就算是初步有说法了。那就没得可藏了，必须要赶紧开始定义任务了捏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑补一个策略1，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域内被搜到了给高分，随时间衰减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度的角速度,rad/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个都已经一秒钟机头转10度了，很多了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域内没被搜到扣分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域外搜到了也给点分，少给点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域外没搜到的少扣点分吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期就一个往哪转弯就好了，不要装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度就不必了因为都一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机的位置。别整烂活儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到这里已经是必须整到新电脑里面去写了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那这里就有114514个调参数的说法了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域形状。整点卷积，刚好对应上劳资之前的动态约束的那些内容岂不美哉。点数不定，所以必须整卷积，两三层顶天了，控制一点维度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月12日14:48:12讲道理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“把CNN和DDPG合起来”并不是一件简单的事情，道理上是要改很多训练的，即把CNN放在agent的critic网络里面，而不是env里面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么，state里面就包含了一堆矩阵了，不是简单的照抄了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么多分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么多步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一步的时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那不行吧，那高低得多来几步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋疼了，要是照现在这样离散的话，空间中一个点与一个点之间隔了一公里，探索半径三公里，那圈圈就很小了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是貌似还可以聊，要是小于三公里，那真就聊不了了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +430,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,15 +462,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,8 +656,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>94808</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666308</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9229</xdr:rowOff>
     </xdr:to>
@@ -610,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R50"/>
+  <dimension ref="B2:R55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,9 +990,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -663,13 +1020,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N24"/>
+  <dimension ref="B7:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -702,14 +1062,441 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <f>1/S36</f>
+        <v>4.0013337779259755E-3</v>
+      </c>
+      <c r="Q36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R36">
+        <f>1/O36</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S36">
+        <f>T36-R36</f>
+        <v>249.91666666666666</v>
+      </c>
+      <c r="T36">
+        <f>1/Q36</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37">
+        <v>0.1</v>
+      </c>
+      <c r="Q37">
+        <f>129/1000</f>
+        <v>0.129</v>
+      </c>
+      <c r="S37">
+        <f>1/P37</f>
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <f>1/Q37</f>
+        <v>7.7519379844961236</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <f>160/60</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <f>3.5*60</f>
+        <v>210</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <f>H45/I45</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <f>3.5*160</f>
+        <v>560</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <f>3.5*60</f>
+        <v>210</v>
+      </c>
+      <c r="I46">
+        <v>500</v>
+      </c>
+      <c r="J46">
+        <f>H46/I46</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56">
+        <v>20000</v>
+      </c>
+      <c r="O56">
+        <v>20000</v>
+      </c>
+      <c r="P56">
+        <f>O56*N56</f>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" t="s">
+        <v>65</v>
+      </c>
+      <c r="N64" t="s">
+        <v>64</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q64">
+        <f>ATAN(1)</f>
+        <v>0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="M65">
+        <f>3*9.8</f>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="N65">
+        <v>44.4</v>
+      </c>
+      <c r="O65">
+        <f>M65/N65</f>
+        <v>0.66216216216216228</v>
+      </c>
+      <c r="P65">
+        <f>ATAN(O65)</f>
+        <v>0.58487761372003411</v>
+      </c>
+      <c r="S65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <f>1*9.8</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N66">
+        <v>44.4</v>
+      </c>
+      <c r="O66">
+        <f>M66/N66</f>
+        <v>0.22072072072072074</v>
+      </c>
+      <c r="P66">
+        <f>ATAN(O66)</f>
+        <v>0.21723764914140889</v>
+      </c>
+      <c r="S66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="N70" t="s">
+        <v>84</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+      <c r="N71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+      <c r="N72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D34" r:id="rId1"/>
+    <hyperlink ref="D35" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Document/50kg小飞机后续.xlsx
+++ b/Document/50kg小飞机后续.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>智能无人机任务规划这个方面去做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,22 @@
   </si>
   <si>
     <t>但是貌似还可以聊，要是小于三公里，那真就聊不了了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月13日19:56:43终于避无可避了，要好好动脑子想想，那个矩阵要怎么给出了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先一个问题，是把目标的矩阵还是把某种扫过的矩阵作为evaluate array？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而目标的那个只含有某种固定的“边界”性质的东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫过的就相当于含有所有历史信息了。先采用这个，无人机知道自己飞过了什么地方，不是理所当然的吗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:V80"/>
+  <dimension ref="B7:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1490,6 +1506,26 @@
         <v>96</v>
       </c>
     </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Document/50kg小飞机后续.xlsx
+++ b/Document/50kg小飞机后续.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>智能无人机任务规划这个方面去做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,173 @@
   </si>
   <si>
     <t>扫过的就相当于含有所有历史信息了。先采用这个，无人机知道自己飞过了什么地方，不是理所当然的吗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个很关键的参数就是刷新率，或者说轨道周期，总之就是过一次能用上的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月14日11:28:25测了一下运行速度，运行速度有点慢呀，是不是矩阵太多了。还是判断距离的那部分太多了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200秒算了一千步，说慢也不算慢，但是肯定也算不上快就是了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怕真的得琢磨一下什么线程池机制啊之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU占用并不高，说明是单核的。如果开个8核就可以变成几十秒一步了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么问题就来了，是多线程还是改矩阵呢？反正分析下来最大的时间消耗还是在node更新状态这一步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来还是线程池比较好改，对程序的改动比较小。改矩阵会损失可读性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好，决定了，就改线程池。刚好相当于CPU和GPU都用起来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2秒一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程改起来挺快的，但是线程是开起来了，CPU占用并没有上去。这就尴尬了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧，好像小有增加，但显然没有拉满。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000步耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月14日14:36:37生成几何还是有问题，现在这个检测不出那种不连续的点凹进去的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来得整一个偏转角度检测，超过360度直接寄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像没什么变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像还是没什么变化。这相当于是计算密集型的东西了，搞来搞去都是它自己Python解释器在算，不像之前可以调用外面的东西，所以效果没什么变化？是这个道理吗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那意思还得攒一个C++的计算库进来？用于给你并行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/595502483，行吧，真有人这么干来实现多线程的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/383572973，这个，好像靠谱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行吧，那就整一下。想必不会比JNI更加蛋疼吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月14日17:21:13，实现了demo，但是改写起来恐怕挺蛋疼的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草了，有那么一瞬间甚至在怀疑，用Python写是不是错误的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那传参数这部分还挺麻烦的呀，至少传一个list进去肯定是跑不了的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pybind11.readthedocs.io/en/stable/advanced/pycpp/object.html</t>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不行，只能传基础的参数类型，不能传自定义的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把求距离的部分并行出去，别的仍然放在Python这头，应该是比较好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算是把C++的弄进去了，看一下效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000步耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU占比确实是增加了一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算是稍微有点效果。进一步封装一下估计还能更好点儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和3的相比，CPU占比并没有显著的增加，说明还是寄？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好，这次是把判断也挪进去了，这样不用往node里面传UAV了，C++传回来的也直接是bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么东西？CPU占用反而是降低了？是因为删了time，sleep？2023年6月15日14:35:57好像是，加上之后貌似恢复了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算是稍微又有一点点效果，但是显然没有实现把CPU拉满的目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月15日14:44:02，艹，实在不行就直接C++写一个battlefiled？现在至少是掌握了可能性的。要不就是改成矩阵版本的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不就是进一步改进算法，node用范围定义，然后只更新周围的点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之就是也差不多，没什么前途。还得是好好优化算法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月15日16:53:52好，程序大改完事儿了。避免了大量的不必要的重复计算，代价是程序可读性下降和复杂性增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好这下好了，变成6秒了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:V87"/>
+  <dimension ref="B7:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,24 +1673,270 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="Q85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>99</v>
+      </c>
+      <c r="R87" t="s">
+        <v>103</v>
+      </c>
+      <c r="S87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+      <c r="R89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>114</v>
+      </c>
+      <c r="R92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>115</v>
+      </c>
+      <c r="R93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>112</v>
+      </c>
+      <c r="R97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>205</v>
+      </c>
+      <c r="T98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="T99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q102" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q103" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>6.2612535953521702</v>
+      </c>
+      <c r="E105">
+        <v>6.2253460884094203</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f>R115/D105</f>
+        <v>30.370025879229477</v>
+      </c>
+    </row>
+    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q109" t="s">
+        <v>126</v>
+      </c>
+      <c r="R109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q113" t="s">
+        <v>129</v>
+      </c>
+      <c r="U113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q114" t="s">
+        <v>130</v>
+      </c>
+      <c r="R114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>190.15443372726401</v>
+      </c>
+      <c r="S115">
+        <v>182.33571934700001</v>
+      </c>
+      <c r="V115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>179.96466469764701</v>
+      </c>
+      <c r="S116">
+        <v>182.988606929779</v>
+      </c>
+      <c r="T116">
+        <v>179.21554517745901</v>
+      </c>
+      <c r="V116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q119" t="s">
+        <v>135</v>
+      </c>
+      <c r="U119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q120" t="s">
+        <v>130</v>
+      </c>
+      <c r="R120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <f>175.22634601593</f>
+        <v>175.22634601593001</v>
+      </c>
+      <c r="S121">
+        <v>175.24729108810399</v>
+      </c>
+      <c r="V121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="17:22" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>175.37919330596901</v>
+      </c>
+      <c r="V122" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1531,8 +1944,11 @@
   <hyperlinks>
     <hyperlink ref="D34" r:id="rId1"/>
     <hyperlink ref="D35" r:id="rId2"/>
+    <hyperlink ref="Q102" r:id="rId3"/>
+    <hyperlink ref="Q103" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Document/50kg小飞机后续.xlsx
+++ b/Document/50kg小飞机后续.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>智能无人机任务规划这个方面去做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,26 @@
   </si>
   <si>
     <t>好这下好了，变成6秒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月16日09:53:45继续，赶紧开始整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了CNN的示例代码。感觉不是很复杂呀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月16日16:41:03讲道理，不要跳步骤，先搞到倒立摆能够摆起来，再考虑别的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是得要transfer，尽量把能映射的都映射成0-1或者-1,1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现已明确，强化学习就是会过分拟合的，当年的某个面试的人就是个傻逼东西。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R55"/>
+  <dimension ref="B2:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,24 +1193,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1205,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
